--- a/biology/Biochimie/Peptide_cyclique/Peptide_cyclique.xlsx
+++ b/biology/Biochimie/Peptide_cyclique/Peptide_cyclique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un peptide cyclique est un polypeptide où l'amine terminale et le carboxyle terminal, l'amine terminale et une chaîne latérale, le carboxyle terminal et une chaîne latérale ou deux chaînes latérales sont liés par une liaison covalente, ce qui rend la molécule cyclique. 
 De nombreux peptides cycliques ont été découverts dans la nature, et une pléthore a été synthétisée en laboratoire. Leur longueur varie de deux résidus d'acide aminé à plusieurs centaines. Ils ont de nombreuses applications en médecine et en biologie.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les peptides cycliques peuvent être classifiés selon le type de liaisons présentes dans le cycle.
 Les peptides cycliques homodétiques, tels que la ciclosporine A, sont les peptides cycliques dont le cycle est exclusivement composé de liaisons peptidiques normales (par exemple entre le carboxyle alpha d'un résidu et l'amine alpha d'un autre). Les plus petits éléments de cette famille sont les 2,5-dicétopipérazines, composés dérivés par cyclisation de dipeptides.
